--- a/test_updated.xlsx
+++ b/test_updated.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269928/oqo5qfxtk8pdfsfyxd1v.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269929/pechy7ze969cj5d5oxxh.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269900/owtgng0mbux5kvptzclu.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269900/knmdorbrevfirq8alc5l.jpg</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269930/hsejbve9ifoad1nke91b.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269931/bkz2bhs7aa8zdsmsgfhw.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269901/m1jsnwv4lncq68zdazuc.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269902/if4pmbha0i9i0ddvghx2.jpg</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269932/cs4ctdl5f9yjsava8nag.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269933/ckdzkut9ipumhtdqvmgr.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269903/tpjdo2bvy2bi9c1zqcjq.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269904/wplki37hhudvcchwwifs.jpg</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269934/dd5akpaviecna3udhopx.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269935/zke0iquedrqznyoltnsu.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269905/pbx2lwiztfuyq7oylr9x.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269906/cpvkdfbuqss4ms2ntoyn.jpg</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269936/vnpkqmrqevgxcqhgvamh.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269937/syvxmnstphfh9sjtjzod.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269907/h0f2l4u2mxm4ozoej1fh.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269908/ytjfhylxg2shb1xvrfzr.jpg</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269938/i1yds7kjoze6dhyac50y.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269939/athlzrjh4l2ndlja76sn.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269909/iu5eagmqwnukmn8xbogl.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269910/kj1lmkje16rahjf6ldzp.jpg</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269940/frn3egst4qzfs73mbx0k.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269941/bth23wiobhr7a518ml53.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735269911/xshlu4saexroc2bjiuhz.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735269912/a2ufbxh8blqucbdch7kj.jpg</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
